--- a/Manuscript/TableS7_types_of_mediators_LOND.xlsx
+++ b/Manuscript/TableS7_types_of_mediators_LOND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruin\Documents\GitHub\MRPC_support\Manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99740114-8DAC-4D9B-B7DC-1BC83D3A23AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732F232F-015C-48FA-BB1A-CEB2394C7D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6158C269-CC33-4864-BC9C-7B455499EA53}"/>
+    <workbookView xWindow="1428" yWindow="1824" windowWidth="16104" windowHeight="10560" xr2:uid="{6158C269-CC33-4864-BC9C-7B455499EA53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Type</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Both Cis and Trans</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1988475-909B-4857-8B24-2B5D8B89A3AF}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,11 +482,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1005</v>
+        <v>966</v>
       </c>
       <c r="C3">
-        <f>B3/SUM(B3:B5)</f>
-        <v>0.33567134268537074</v>
+        <v>0.33093525179856098</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -491,11 +493,10 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>1898</v>
+        <v>1862</v>
       </c>
       <c r="C4">
-        <f>B4/SUM(B3:B5)</f>
-        <v>0.63393453573814296</v>
+        <v>0.63788968824940095</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -506,8 +507,18 @@
         <v>91</v>
       </c>
       <c r="C5">
-        <f>B5/SUM(B3:B5)</f>
-        <v>3.0394121576486306E-2</v>
+        <v>3.1175059952038401E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>2919</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -531,11 +542,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C10">
-        <f>B10/SUM(B10:B13)</f>
-        <v>0.18706467661691542</v>
+        <v>0.17805383022774299</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -543,11 +553,10 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="C11">
-        <f>B11/SUM(B10:B13)</f>
-        <v>0.52039800995024876</v>
+        <v>0.52484472049689401</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -555,11 +564,10 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C12">
-        <f>B12/SUM(B10:B13)</f>
-        <v>0.2626865671641791</v>
+        <v>0.26811594202898598</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -567,139 +575,169 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <f>B13/SUM(B10:B13)</f>
-        <v>2.9850746268656716E-2</v>
+        <v>2.8985507246376802E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B10:B13)</f>
+        <v>966</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C10:C13)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>586</v>
-      </c>
-      <c r="C16">
-        <f>B16/SUM(B16:B19)</f>
-        <v>0.30874604847207587</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>513</v>
-      </c>
-      <c r="C17">
-        <f>B17/SUM(B16:B19)</f>
-        <v>0.27028451001053738</v>
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>374</v>
+        <v>571</v>
       </c>
       <c r="C18">
-        <f>B18/SUM(B16:B19)</f>
-        <v>0.19704952581664911</v>
+        <v>0.30665950590762597</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>425</v>
+        <v>502</v>
       </c>
       <c r="C19">
-        <f>B19/SUM(B16:B19)</f>
-        <v>0.22391991570073763</v>
+        <v>0.26960257787325498</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>366</v>
+      </c>
+      <c r="C20">
+        <v>0.19656283566058</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>423</v>
+      </c>
+      <c r="C21">
+        <v>0.22717508055853899</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>18954</v>
+        <f>SUM(B18:B21)</f>
+        <v>1862</v>
       </c>
       <c r="C22">
-        <f>B22/SUM(B22:B25)</f>
-        <v>0.24836858243572607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>24935</v>
-      </c>
-      <c r="C23">
-        <f>B23/SUM(B22:B25)</f>
-        <v>0.32674214429855597</v>
+        <f>SUM(C18:C21)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>18843</v>
-      </c>
-      <c r="C24">
-        <f>B24/SUM(B22:B25)</f>
-        <v>0.24691406557119269</v>
+      <c r="A24" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>18954</v>
+      </c>
+      <c r="C26">
+        <v>0.24836858243572599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>24935</v>
+      </c>
+      <c r="C27">
+        <v>0.32674214429855603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>18843</v>
+      </c>
+      <c r="C28">
+        <v>0.246914065571193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B25">
+      <c r="B29">
         <v>13582</v>
       </c>
-      <c r="C25">
-        <f>B25/SUM(B22:B25)</f>
-        <v>0.17797520769452524</v>
+      <c r="C29">
+        <v>0.17797520769452499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <f>SUM(B26:B29)</f>
+        <v>76314</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C26:C29)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
